--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -35,6 +34,9 @@
     <t>Arthur Bondar, Benjamin Sabean</t>
   </si>
   <si>
+    <t>Gantt Chart - Ocean Pi Project</t>
+  </si>
+  <si>
     <t>Data Recovery Attemp</t>
   </si>
   <si>
@@ -123,9 +125,6 @@
   </si>
   <si>
     <t>Electronics Support platform</t>
-  </si>
-  <si>
-    <t>Gantt Chart - Turtle Tag Project</t>
   </si>
 </sst>
 </file>
@@ -614,11 +613,11 @@
         </c:dLbls>
         <c:gapWidth val="58"/>
         <c:overlap val="100"/>
-        <c:axId val="116351488"/>
-        <c:axId val="133878272"/>
+        <c:axId val="132132864"/>
+        <c:axId val="67343424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116351488"/>
+        <c:axId val="132132864"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -661,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133878272"/>
+        <c:crossAx val="67343424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133878272"/>
+        <c:axId val="67343424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43282"/>
@@ -722,7 +721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116351488"/>
+        <c:crossAx val="132132864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -1093,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1107,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1143,10 +1142,10 @@
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" si="0">E4-D4</f>
@@ -1161,10 +1160,10 @@
     </row>
     <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5" si="1">E5-D5</f>
@@ -1179,10 +1178,10 @@
     </row>
     <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
@@ -1197,10 +1196,10 @@
     </row>
     <row r="7" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
@@ -1215,10 +1214,10 @@
     </row>
     <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
@@ -1233,10 +1232,10 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
@@ -1251,10 +1250,10 @@
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
@@ -1269,10 +1268,10 @@
     </row>
     <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
@@ -1287,10 +1286,10 @@
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:C13" si="2">E12-D12</f>
@@ -1305,10 +1304,10 @@
     </row>
     <row r="13" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="2"/>
@@ -1323,10 +1322,10 @@
     </row>
     <row r="14" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ref="C14:C15" si="3">E14-D14</f>
@@ -1341,10 +1340,10 @@
     </row>
     <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="3"/>
@@ -1359,10 +1358,10 @@
     </row>
     <row r="16" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ref="C16:C17" si="4">E16-D16</f>
@@ -1377,10 +1376,10 @@
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="4"/>
@@ -1395,10 +1394,10 @@
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ref="C18" si="5">E18-D18</f>
@@ -1448,16 +1447,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>